--- a/student_marks.xlsx
+++ b/student_marks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDUCATOR\Desktop\PYTHON FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDUCATOR\Desktop\LEARNER MARKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
   <si>
     <t>John</t>
   </si>
@@ -465,6 +465,171 @@
   </si>
   <si>
     <t>1sL6x</t>
+  </si>
+  <si>
+    <t>Edan Syster</t>
+  </si>
+  <si>
+    <t>Kimberleigh Visagie</t>
+  </si>
+  <si>
+    <t>Chaneze Van Wyk</t>
+  </si>
+  <si>
+    <t>Ronaldo Siyengu</t>
+  </si>
+  <si>
+    <t>Renico Strauss</t>
+  </si>
+  <si>
+    <t>Miquel Van Staden</t>
+  </si>
+  <si>
+    <t>janet Lee saal</t>
+  </si>
+  <si>
+    <t>Charlie Wildschudt</t>
+  </si>
+  <si>
+    <t>Rowaldia Mienies</t>
+  </si>
+  <si>
+    <t>Aubrey Ndlandla</t>
+  </si>
+  <si>
+    <t>Moegamat daniels</t>
+  </si>
+  <si>
+    <t>Herschelle Abrams</t>
+  </si>
+  <si>
+    <t>Frederico Eiman</t>
+  </si>
+  <si>
+    <t>Ste-Ander Mangope</t>
+  </si>
+  <si>
+    <t>Dioderick Van Rooi</t>
+  </si>
+  <si>
+    <t>Richardo Strauss</t>
+  </si>
+  <si>
+    <t>Tanya Leukes</t>
+  </si>
+  <si>
+    <t>Weolien Steenkamp</t>
+  </si>
+  <si>
+    <t>Leandrea Van Wyk</t>
+  </si>
+  <si>
+    <t>Bianca Links</t>
+  </si>
+  <si>
+    <t>Lester Leonard</t>
+  </si>
+  <si>
+    <t>Zemonia Gouws</t>
+  </si>
+  <si>
+    <t>Nikita Kordom</t>
+  </si>
+  <si>
+    <t>Claudia Louw</t>
+  </si>
+  <si>
+    <t>Whirlfred Kopps</t>
+  </si>
+  <si>
+    <t>Elmar Eiman</t>
+  </si>
+  <si>
+    <t>Monroe Van Wyk</t>
+  </si>
+  <si>
+    <t>Shashmica Springbok</t>
+  </si>
+  <si>
+    <t>3r5h7</t>
+  </si>
+  <si>
+    <t>9k2z4</t>
+  </si>
+  <si>
+    <t>6s8t1</t>
+  </si>
+  <si>
+    <t>2f4g6</t>
+  </si>
+  <si>
+    <t>7j9q5</t>
+  </si>
+  <si>
+    <t>1b3c5</t>
+  </si>
+  <si>
+    <t>8p6y4</t>
+  </si>
+  <si>
+    <t>5x2n9</t>
+  </si>
+  <si>
+    <t>4m8l6</t>
+  </si>
+  <si>
+    <t>2d6f8</t>
+  </si>
+  <si>
+    <t>9z5x7</t>
+  </si>
+  <si>
+    <t>6h3j9</t>
+  </si>
+  <si>
+    <t>1c7v5</t>
+  </si>
+  <si>
+    <t>8q2r4</t>
+  </si>
+  <si>
+    <t>5n6m2</t>
+  </si>
+  <si>
+    <t>4g9t1</t>
+  </si>
+  <si>
+    <t>2y3s5</t>
+  </si>
+  <si>
+    <t>9l6k4</t>
+  </si>
+  <si>
+    <t>6f2d9</t>
+  </si>
+  <si>
+    <t>1v7c5</t>
+  </si>
+  <si>
+    <t>8r4q2</t>
+  </si>
+  <si>
+    <t>5m2n6</t>
+  </si>
+  <si>
+    <t>4t1g9</t>
+  </si>
+  <si>
+    <t>2s5y3</t>
+  </si>
+  <si>
+    <t>9k4l6</t>
+  </si>
+  <si>
+    <t>6d9f2</t>
+  </si>
+  <si>
+    <t>1c5v7</t>
   </si>
 </sst>
 </file>
@@ -782,15 +947,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1597,6 +1762,314 @@
         <v>25</v>
       </c>
     </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/student_marks.xlsx
+++ b/student_marks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
   <si>
     <t>John</t>
   </si>
@@ -630,6 +630,117 @@
   </si>
   <si>
     <t>1c5v7</t>
+  </si>
+  <si>
+    <t>Sanchia Gouws</t>
+  </si>
+  <si>
+    <t>Larisha Gouws</t>
+  </si>
+  <si>
+    <t>Brumilda Du Plooy</t>
+  </si>
+  <si>
+    <t>Romarck Strauss</t>
+  </si>
+  <si>
+    <t>Jaylin Murphy</t>
+  </si>
+  <si>
+    <t>Ronald Huma</t>
+  </si>
+  <si>
+    <t>Adriano Bok</t>
+  </si>
+  <si>
+    <t>Omphomotse</t>
+  </si>
+  <si>
+    <t>Heinrich Mettler</t>
+  </si>
+  <si>
+    <t>Jaynelee Murphy</t>
+  </si>
+  <si>
+    <t>Sedrick Bongobongo</t>
+  </si>
+  <si>
+    <t>Dayrian Mathys</t>
+  </si>
+  <si>
+    <t>Gerath Du Raan</t>
+  </si>
+  <si>
+    <t>Farrel Cloete</t>
+  </si>
+  <si>
+    <t>Timoteus Muller</t>
+  </si>
+  <si>
+    <t>Caden Diergaardt</t>
+  </si>
+  <si>
+    <t>Luthando Mitchell</t>
+  </si>
+  <si>
+    <t>Hendrik Booysen</t>
+  </si>
+  <si>
+    <t>Enwill Steenkamp</t>
+  </si>
+  <si>
+    <t>Dawin Brandt</t>
+  </si>
+  <si>
+    <t>Ricardo Du Plooy</t>
+  </si>
+  <si>
+    <t>Graham Jooste</t>
+  </si>
+  <si>
+    <t>Savviano Luther</t>
+  </si>
+  <si>
+    <t>Mustafa Naidoo</t>
+  </si>
+  <si>
+    <t>Renier Januarie</t>
+  </si>
+  <si>
+    <t>Leonardo Gqoboka</t>
+  </si>
+  <si>
+    <t>Bramley Moleki</t>
+  </si>
+  <si>
+    <t>Luciano Januarie</t>
+  </si>
+  <si>
+    <t>Marcelino Cloete</t>
+  </si>
+  <si>
+    <t>Lee-Kano Draaier</t>
+  </si>
+  <si>
+    <t>Hamilton Bosch</t>
+  </si>
+  <si>
+    <t>Indren Simon</t>
+  </si>
+  <si>
+    <t>Vaughen Claasen</t>
+  </si>
+  <si>
+    <t>Deveney Cloete</t>
+  </si>
+  <si>
+    <t>Ruthie April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siyabonga </t>
+  </si>
+  <si>
+    <t>Preshane Johnson</t>
   </si>
 </sst>
 </file>
@@ -947,15 +1058,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2070,6 +2181,302 @@
         <v>72</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/student_marks.xlsx
+++ b/student_marks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="275">
   <si>
     <t>John</t>
   </si>
@@ -741,6 +741,114 @@
   </si>
   <si>
     <t>Preshane Johnson</t>
+  </si>
+  <si>
+    <t>3tQ7e</t>
+  </si>
+  <si>
+    <t>5jK9z</t>
+  </si>
+  <si>
+    <t>8rG2x</t>
+  </si>
+  <si>
+    <t>6dF4c</t>
+  </si>
+  <si>
+    <t>2vN6t</t>
+  </si>
+  <si>
+    <t>1bM5p</t>
+  </si>
+  <si>
+    <t>9zJ3k</t>
+  </si>
+  <si>
+    <t>7hL8s</t>
+  </si>
+  <si>
+    <t>4fH6d</t>
+  </si>
+  <si>
+    <t>0cV9n</t>
+  </si>
+  <si>
+    <t>2mK7b</t>
+  </si>
+  <si>
+    <t>6jG4f</t>
+  </si>
+  <si>
+    <t>8nT6v</t>
+  </si>
+  <si>
+    <t>4dL9s</t>
+  </si>
+  <si>
+    <t>1pF8c</t>
+  </si>
+  <si>
+    <t>3kM7h</t>
+  </si>
+  <si>
+    <t>5tB2x</t>
+  </si>
+  <si>
+    <t>9zV3d</t>
+  </si>
+  <si>
+    <t>7sF6g</t>
+  </si>
+  <si>
+    <t>0nJ8f</t>
+  </si>
+  <si>
+    <t>6bT9d</t>
+  </si>
+  <si>
+    <t>4cH8s</t>
+  </si>
+  <si>
+    <t>2vG6t</t>
+  </si>
+  <si>
+    <t>8xN5p</t>
+  </si>
+  <si>
+    <t>3dJ9k</t>
+  </si>
+  <si>
+    <t>1tL7z</t>
+  </si>
+  <si>
+    <t>5fK3h</t>
+  </si>
+  <si>
+    <t>7gV9n</t>
+  </si>
+  <si>
+    <t>9bM8c</t>
+  </si>
+  <si>
+    <t>6hN5s</t>
+  </si>
+  <si>
+    <t>4dF9x</t>
+  </si>
+  <si>
+    <t>8pL6c</t>
+  </si>
+  <si>
+    <t>1zT7n</t>
+  </si>
+  <si>
+    <t>3fJ5k</t>
+  </si>
+  <si>
+    <t>5sB8h</t>
+  </si>
+  <si>
+    <t>7cV2d</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1169,7 @@
   <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,6 +2293,9 @@
       <c r="A102" t="s">
         <v>202</v>
       </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
       <c r="C102">
         <v>35</v>
       </c>
@@ -2193,6 +2304,9 @@
       <c r="A103" t="s">
         <v>203</v>
       </c>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
       <c r="C103">
         <v>31</v>
       </c>
@@ -2201,6 +2315,9 @@
       <c r="A104" t="s">
         <v>204</v>
       </c>
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
       <c r="C104">
         <v>9</v>
       </c>
@@ -2209,6 +2326,9 @@
       <c r="A105" t="s">
         <v>205</v>
       </c>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
       <c r="C105">
         <v>38</v>
       </c>
@@ -2217,6 +2337,9 @@
       <c r="A106" t="s">
         <v>206</v>
       </c>
+      <c r="B106" t="s">
+        <v>243</v>
+      </c>
       <c r="C106">
         <v>14</v>
       </c>
@@ -2225,6 +2348,9 @@
       <c r="A107" t="s">
         <v>207</v>
       </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
       <c r="C107">
         <v>17</v>
       </c>
@@ -2233,6 +2359,9 @@
       <c r="A108" t="s">
         <v>208</v>
       </c>
+      <c r="B108" t="s">
+        <v>245</v>
+      </c>
       <c r="C108">
         <v>24</v>
       </c>
@@ -2241,6 +2370,9 @@
       <c r="A109" t="s">
         <v>209</v>
       </c>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
       <c r="C109">
         <v>17</v>
       </c>
@@ -2249,6 +2381,9 @@
       <c r="A110" t="s">
         <v>210</v>
       </c>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
       <c r="C110">
         <v>27</v>
       </c>
@@ -2257,6 +2392,9 @@
       <c r="A111" t="s">
         <v>211</v>
       </c>
+      <c r="B111" t="s">
+        <v>248</v>
+      </c>
       <c r="C111">
         <v>24</v>
       </c>
@@ -2265,6 +2403,9 @@
       <c r="A112" t="s">
         <v>212</v>
       </c>
+      <c r="B112" t="s">
+        <v>249</v>
+      </c>
       <c r="C112">
         <v>24</v>
       </c>
@@ -2273,6 +2414,9 @@
       <c r="A113" t="s">
         <v>213</v>
       </c>
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
       <c r="C113">
         <v>35</v>
       </c>
@@ -2281,6 +2425,9 @@
       <c r="A114" t="s">
         <v>214</v>
       </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
       <c r="C114">
         <v>66</v>
       </c>
@@ -2289,6 +2436,9 @@
       <c r="A115" t="s">
         <v>215</v>
       </c>
+      <c r="B115" t="s">
+        <v>252</v>
+      </c>
       <c r="C115">
         <v>49</v>
       </c>
@@ -2297,6 +2447,9 @@
       <c r="A116" t="s">
         <v>216</v>
       </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
       <c r="C116">
         <v>32</v>
       </c>
@@ -2305,6 +2458,9 @@
       <c r="A117" t="s">
         <v>217</v>
       </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
       <c r="C117">
         <v>12</v>
       </c>
@@ -2313,6 +2469,9 @@
       <c r="A118" t="s">
         <v>218</v>
       </c>
+      <c r="B118" t="s">
+        <v>255</v>
+      </c>
       <c r="C118">
         <v>37</v>
       </c>
@@ -2321,6 +2480,9 @@
       <c r="A119" t="s">
         <v>219</v>
       </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
       <c r="C119">
         <v>21</v>
       </c>
@@ -2329,6 +2491,9 @@
       <c r="A120" t="s">
         <v>220</v>
       </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
       <c r="C120">
         <v>17</v>
       </c>
@@ -2337,6 +2502,9 @@
       <c r="A121" t="s">
         <v>221</v>
       </c>
+      <c r="B121" t="s">
+        <v>258</v>
+      </c>
       <c r="C121">
         <v>18</v>
       </c>
@@ -2345,6 +2513,9 @@
       <c r="A122" t="s">
         <v>222</v>
       </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
       <c r="C122">
         <v>25</v>
       </c>
@@ -2353,6 +2524,9 @@
       <c r="A123" t="s">
         <v>223</v>
       </c>
+      <c r="B123" t="s">
+        <v>260</v>
+      </c>
       <c r="C123">
         <v>20</v>
       </c>
@@ -2361,6 +2535,9 @@
       <c r="A124" t="s">
         <v>224</v>
       </c>
+      <c r="B124" t="s">
+        <v>261</v>
+      </c>
       <c r="C124">
         <v>20</v>
       </c>
@@ -2369,6 +2546,9 @@
       <c r="A125" t="s">
         <v>225</v>
       </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
       <c r="C125">
         <v>15</v>
       </c>
@@ -2377,6 +2557,9 @@
       <c r="A126" t="s">
         <v>226</v>
       </c>
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
       <c r="C126">
         <v>17</v>
       </c>
@@ -2385,6 +2568,9 @@
       <c r="A127" t="s">
         <v>227</v>
       </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
       <c r="C127">
         <v>19</v>
       </c>
@@ -2393,6 +2579,9 @@
       <c r="A128" t="s">
         <v>228</v>
       </c>
+      <c r="B128" t="s">
+        <v>265</v>
+      </c>
       <c r="C128">
         <v>24</v>
       </c>
@@ -2401,6 +2590,9 @@
       <c r="A129" t="s">
         <v>229</v>
       </c>
+      <c r="B129" t="s">
+        <v>266</v>
+      </c>
       <c r="C129">
         <v>6</v>
       </c>
@@ -2409,6 +2601,9 @@
       <c r="A130" t="s">
         <v>230</v>
       </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
       <c r="C130">
         <v>20</v>
       </c>
@@ -2417,6 +2612,9 @@
       <c r="A131" t="s">
         <v>231</v>
       </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
       <c r="C131">
         <v>24</v>
       </c>
@@ -2425,6 +2623,9 @@
       <c r="A132" t="s">
         <v>232</v>
       </c>
+      <c r="B132" t="s">
+        <v>120</v>
+      </c>
       <c r="C132">
         <v>12</v>
       </c>
@@ -2433,6 +2634,9 @@
       <c r="A133" t="s">
         <v>233</v>
       </c>
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
       <c r="C133">
         <v>12</v>
       </c>
@@ -2441,6 +2645,9 @@
       <c r="A134" t="s">
         <v>234</v>
       </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
       <c r="C134">
         <v>13</v>
       </c>
@@ -2449,6 +2656,9 @@
       <c r="A135" t="s">
         <v>235</v>
       </c>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
       <c r="C135">
         <v>49</v>
       </c>
@@ -2457,6 +2667,9 @@
       <c r="A136" t="s">
         <v>236</v>
       </c>
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
       <c r="C136">
         <v>54</v>
       </c>
@@ -2465,6 +2678,9 @@
       <c r="A137" t="s">
         <v>237</v>
       </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
       <c r="C137">
         <v>23</v>
       </c>
@@ -2472,6 +2688,9 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>274</v>
       </c>
       <c r="C138">
         <v>22</v>
